--- a/SignUpTestCases.xlsx
+++ b/SignUpTestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitesh Kumar\carb2\Carbonite_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitesh Kumar\carbonite_test\Carbonite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F958A-AD46-4538-926B-36868299F965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD560C54-7932-42B6-9D6E-B761990A9929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{DF59C41C-1C41-4F97-8039-001092B63122}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{DF59C41C-1C41-4F97-8039-001092B63122}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Scenarios" sheetId="3" r:id="rId1"/>
@@ -561,19 +561,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -595,44 +633,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9F2E0-ACC2-4D47-9759-84D67CA0ED83}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1201,17 +1201,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>42</v>
       </c>
@@ -1222,25 +1222,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -1256,10 +1256,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1284,27 +1284,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -1323,28 +1323,28 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -1353,7 +1353,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -1365,7 +1365,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -1374,7 +1374,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -1401,14 +1401,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="24"/>
@@ -1425,7 +1425,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="24"/>
@@ -1437,8 +1437,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1449,57 +1449,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -1507,18 +1507,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -1526,18 +1526,18 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -1545,18 +1545,18 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -1564,264 +1564,179 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1836,6 +1751,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,17 +1982,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>56</v>
       </c>
@@ -2003,25 +2003,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -2037,10 +2037,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2065,27 +2065,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -2104,28 +2104,28 @@
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -2134,7 +2134,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -2146,7 +2146,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -2155,7 +2155,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -2165,14 +2165,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -2182,14 +2182,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="24"/>
@@ -2206,7 +2206,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="24"/>
@@ -2218,8 +2218,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2230,57 +2230,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -2288,18 +2288,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -2307,18 +2307,18 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -2326,18 +2326,18 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -2345,179 +2345,264 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2532,91 +2617,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,17 +2763,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>60</v>
       </c>
@@ -2784,25 +2784,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -2818,10 +2818,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2846,27 +2846,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -2885,28 +2885,28 @@
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -2915,7 +2915,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -2927,7 +2927,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -2936,7 +2936,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -2946,14 +2946,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -2963,14 +2963,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="24"/>
@@ -2987,7 +2987,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="24"/>
@@ -2999,8 +2999,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3011,57 +3011,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -3069,18 +3069,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -3088,18 +3088,18 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -3107,18 +3107,18 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -3126,179 +3126,264 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3313,91 +3398,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3544,17 +3544,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>70</v>
       </c>
@@ -3565,25 +3565,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -3599,10 +3599,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3627,27 +3627,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -3666,28 +3666,28 @@
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -3696,7 +3696,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -3708,7 +3708,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -3717,7 +3717,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -3727,14 +3727,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -3744,14 +3744,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="24"/>
@@ -3768,7 +3768,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="24"/>
@@ -3780,8 +3780,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3792,57 +3792,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -3850,18 +3850,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -3869,14 +3869,14 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -3884,14 +3884,14 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -3899,175 +3899,260 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4082,91 +4167,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4313,17 +4313,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>95</v>
       </c>
@@ -4334,25 +4334,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -4368,10 +4368,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -4396,27 +4396,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -4435,28 +4435,28 @@
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -4465,7 +4465,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -4477,7 +4477,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -4486,7 +4486,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="24"/>
@@ -4496,14 +4496,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -4511,14 +4511,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -4533,7 +4533,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -4543,8 +4543,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4555,57 +4555,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -4613,18 +4613,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -4632,14 +4632,14 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -4647,14 +4647,14 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -4662,260 +4662,175 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4930,6 +4845,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4939,7 +4939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A056087A-DDDF-4557-922C-DE0A8AF32F0D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5076,17 +5076,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>81</v>
       </c>
@@ -5097,25 +5097,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -5131,10 +5131,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5159,27 +5159,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -5198,28 +5198,28 @@
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -5228,7 +5228,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -5240,7 +5240,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -5249,7 +5249,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="24"/>
@@ -5259,14 +5259,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -5296,7 +5296,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -5306,8 +5306,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5318,57 +5318,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -5376,18 +5376,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -5395,14 +5395,14 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -5410,14 +5410,14 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -5425,260 +5425,175 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5693,6 +5608,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5839,17 +5839,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>94</v>
       </c>
@@ -5860,25 +5860,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -5894,10 +5894,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5922,27 +5922,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -5961,28 +5961,28 @@
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -5991,7 +5991,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -6003,7 +6003,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -6012,7 +6012,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -6022,14 +6022,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -6039,14 +6039,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="24"/>
@@ -6063,7 +6063,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -6073,8 +6073,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6085,57 +6085,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -6143,18 +6143,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -6162,14 +6162,14 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -6177,14 +6177,14 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -6192,260 +6192,175 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6460,6 +6375,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6606,17 +6606,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="24" t="s">
         <v>84</v>
       </c>
@@ -6627,25 +6627,25 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -6661,10 +6661,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6689,27 +6689,27 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -6728,28 +6728,28 @@
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="24"/>
@@ -6758,7 +6758,7 @@
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="24"/>
@@ -6770,7 +6770,7 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="24"/>
@@ -6779,7 +6779,7 @@
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="24"/>
@@ -6789,14 +6789,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="24"/>
@@ -6806,14 +6806,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="23" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="24"/>
@@ -6830,7 +6830,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -6840,8 +6840,8 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6852,57 +6852,57 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25"/>
     </row>
@@ -6910,18 +6910,18 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="25"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
     </row>
@@ -6929,14 +6929,14 @@
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="25"/>
     </row>
@@ -6944,14 +6944,14 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="25"/>
     </row>
@@ -6959,260 +6959,175 @@
       <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="24"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7227,6 +7142,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
